--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_balaji\Desktop\Projects\KHC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E8967E0-5D51-4634-A532-40CC682A5138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8910ED81-18B2-42C4-BC0F-3A5FD804C3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{46430C38-943E-4E02-9EFA-20CCA6DF5D3F}"/>
   </bookViews>
@@ -34,42 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Arun</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Rick</t>
-  </si>
-  <si>
-    <t>Adams</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mytemporaryproject28490</t>
+  </si>
+  <si>
+    <t>us-central1</t>
+  </si>
+  <si>
+    <t>us-central1-a</t>
+  </si>
+  <si>
+    <t>sample-instance-200</t>
   </si>
 </sst>
 </file>
@@ -421,13 +409,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450AF6A3-DDDA-4C94-95A8-8592E7B1AA23}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -444,59 +438,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>4600</v>
       </c>
     </row>
   </sheetData>
